--- a/biology/Médecine/Cadre_unique_en_psychiatrie/Cadre_unique_en_psychiatrie.xlsx
+++ b/biology/Médecine/Cadre_unique_en_psychiatrie/Cadre_unique_en_psychiatrie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cadre unique en psychiatrie était un système de fonctionnement que l'on trouvait encore jusque dans les années 1980 dans bon nombre d'hôpitaux psychiatriques en France.  
 Il s'agissait d'organiser là un rôle thérapeutique unique des infirmiers en psychiatrie auprès des patients dans les actes de la vie quotidienne, ménage, repas mais aussi les soins, l’accompagnement en promenade.
